--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>155.704717502536</v>
+        <v>156.321279</v>
       </c>
       <c r="H2">
-        <v>155.704717502536</v>
+        <v>468.963837</v>
       </c>
       <c r="I2">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J2">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.18460014257782</v>
+        <v>0.3424073333333333</v>
       </c>
       <c r="N2">
-        <v>1.18460014257782</v>
+        <v>1.027222</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2005686561953534</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2005686561953535</v>
       </c>
       <c r="Q2">
-        <v>184.4478305535434</v>
+        <v>53.525552285646</v>
       </c>
       <c r="R2">
-        <v>184.4478305535434</v>
+        <v>481.729970570814</v>
       </c>
       <c r="S2">
-        <v>0.2054364106393654</v>
+        <v>0.04097338831959553</v>
       </c>
       <c r="T2">
-        <v>0.2054364106393654</v>
+        <v>0.04097338831959554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,238 +596,1478 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>331.632421038158</v>
+        <v>156.321279</v>
       </c>
       <c r="H3">
-        <v>331.632421038158</v>
+        <v>468.963837</v>
       </c>
       <c r="I3">
-        <v>0.4375549779255232</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J3">
-        <v>0.4375549779255232</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.18460014257782</v>
+        <v>1.222653666666667</v>
       </c>
       <c r="N3">
-        <v>1.18460014257782</v>
+        <v>3.667961</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7161820996308148</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7161820996308148</v>
       </c>
       <c r="Q3">
-        <v>392.8518132452296</v>
+        <v>191.126784947373</v>
       </c>
       <c r="R3">
-        <v>392.8518132452296</v>
+        <v>1720.141064526357</v>
       </c>
       <c r="S3">
-        <v>0.4375549779255232</v>
+        <v>0.1463060471778563</v>
       </c>
       <c r="T3">
-        <v>0.4375549779255232</v>
+        <v>0.1463060471778564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>92.58451713478711</v>
+        <v>156.321279</v>
       </c>
       <c r="H4">
-        <v>92.58451713478711</v>
+        <v>468.963837</v>
       </c>
       <c r="I4">
-        <v>0.1221557778468703</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J4">
-        <v>0.1221557778468703</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.18460014257782</v>
+        <v>0.04147033333333333</v>
       </c>
       <c r="N4">
-        <v>1.18460014257782</v>
+        <v>0.124411</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.02429167900017729</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.02429167900017729</v>
       </c>
       <c r="Q4">
-        <v>109.6756321983674</v>
+        <v>6.482695547223</v>
       </c>
       <c r="R4">
-        <v>109.6756321983674</v>
+        <v>58.344259925007</v>
       </c>
       <c r="S4">
-        <v>0.1221557778468703</v>
+        <v>0.004962452336719034</v>
       </c>
       <c r="T4">
-        <v>0.1221557778468703</v>
+        <v>0.004962452336719035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>91.53003224009861</v>
+        <v>156.321279</v>
       </c>
       <c r="H5">
-        <v>91.53003224009861</v>
+        <v>468.963837</v>
       </c>
       <c r="I5">
-        <v>0.1207644931426371</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J5">
-        <v>0.1207644931426371</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.18460014257782</v>
+        <v>0.03467833333333333</v>
       </c>
       <c r="N5">
-        <v>1.18460014257782</v>
+        <v>0.104035</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.02031319437013965</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.02031319437013965</v>
       </c>
       <c r="Q5">
-        <v>108.4264892417733</v>
+        <v>5.420961420255</v>
       </c>
       <c r="R5">
-        <v>108.4264892417733</v>
+        <v>48.788652782295</v>
       </c>
       <c r="S5">
-        <v>0.1207644931426371</v>
+        <v>0.004149703232435754</v>
       </c>
       <c r="T5">
-        <v>0.1207644931426371</v>
+        <v>0.004149703232435756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>156.321279</v>
+      </c>
+      <c r="H6">
+        <v>468.963837</v>
+      </c>
+      <c r="I6">
+        <v>0.2042860988193865</v>
+      </c>
+      <c r="J6">
+        <v>0.2042860988193865</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.065973</v>
+      </c>
+      <c r="N6">
+        <v>0.197919</v>
+      </c>
+      <c r="O6">
+        <v>0.03864437080351488</v>
+      </c>
+      <c r="P6">
+        <v>0.03864437080351488</v>
+      </c>
+      <c r="Q6">
+        <v>10.312983739467</v>
+      </c>
+      <c r="R6">
+        <v>92.816853655203</v>
+      </c>
+      <c r="S6">
+        <v>0.007894507752779854</v>
+      </c>
+      <c r="T6">
+        <v>0.007894507752779856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>86.470031111476</v>
-      </c>
-      <c r="H6">
-        <v>86.470031111476</v>
-      </c>
-      <c r="I6">
-        <v>0.1140883404456038</v>
-      </c>
-      <c r="J6">
-        <v>0.1140883404456038</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.18460014257782</v>
-      </c>
-      <c r="N6">
-        <v>1.18460014257782</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>102.432411183363</v>
-      </c>
-      <c r="R6">
-        <v>102.432411183363</v>
-      </c>
-      <c r="S6">
-        <v>0.1140883404456038</v>
-      </c>
-      <c r="T6">
-        <v>0.1140883404456038</v>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>331.6631673333333</v>
+      </c>
+      <c r="H7">
+        <v>994.9895019999999</v>
+      </c>
+      <c r="I7">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="J7">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.3424073333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.027222</v>
+      </c>
+      <c r="O7">
+        <v>0.2005686561953534</v>
+      </c>
+      <c r="P7">
+        <v>0.2005686561953535</v>
+      </c>
+      <c r="Q7">
+        <v>113.5639006914938</v>
+      </c>
+      <c r="R7">
+        <v>1022.075106223444</v>
+      </c>
+      <c r="S7">
+        <v>0.08693227072723514</v>
+      </c>
+      <c r="T7">
+        <v>0.08693227072723515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>331.6631673333333</v>
+      </c>
+      <c r="H8">
+        <v>994.9895019999999</v>
+      </c>
+      <c r="I8">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="J8">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.222653666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.667961</v>
+      </c>
+      <c r="O8">
+        <v>0.7161820996308148</v>
+      </c>
+      <c r="P8">
+        <v>0.7161820996308148</v>
+      </c>
+      <c r="Q8">
+        <v>405.5091876383802</v>
+      </c>
+      <c r="R8">
+        <v>3649.582688745422</v>
+      </c>
+      <c r="S8">
+        <v>0.3104140864087219</v>
+      </c>
+      <c r="T8">
+        <v>0.3104140864087219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>331.6631673333333</v>
+      </c>
+      <c r="H9">
+        <v>994.9895019999999</v>
+      </c>
+      <c r="I9">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="J9">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.04147033333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.124411</v>
+      </c>
+      <c r="O9">
+        <v>0.02429167900017729</v>
+      </c>
+      <c r="P9">
+        <v>0.02429167900017729</v>
+      </c>
+      <c r="Q9">
+        <v>13.75418210370244</v>
+      </c>
+      <c r="R9">
+        <v>123.787638933322</v>
+      </c>
+      <c r="S9">
+        <v>0.01052871797279074</v>
+      </c>
+      <c r="T9">
+        <v>0.01052871797279074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>331.6631673333333</v>
+      </c>
+      <c r="H10">
+        <v>994.9895019999999</v>
+      </c>
+      <c r="I10">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="J10">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03467833333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.104035</v>
+      </c>
+      <c r="O10">
+        <v>0.02031319437013965</v>
+      </c>
+      <c r="P10">
+        <v>0.02031319437013965</v>
+      </c>
+      <c r="Q10">
+        <v>11.50152587117444</v>
+      </c>
+      <c r="R10">
+        <v>103.51373284057</v>
+      </c>
+      <c r="S10">
+        <v>0.00880432738503255</v>
+      </c>
+      <c r="T10">
+        <v>0.008804327385032552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>331.6631673333333</v>
+      </c>
+      <c r="H11">
+        <v>994.9895019999999</v>
+      </c>
+      <c r="I11">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="J11">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.065973</v>
+      </c>
+      <c r="N11">
+        <v>0.197919</v>
+      </c>
+      <c r="O11">
+        <v>0.03864437080351488</v>
+      </c>
+      <c r="P11">
+        <v>0.03864437080351488</v>
+      </c>
+      <c r="Q11">
+        <v>21.880814138482</v>
+      </c>
+      <c r="R11">
+        <v>196.927327246338</v>
+      </c>
+      <c r="S11">
+        <v>0.01674959073117948</v>
+      </c>
+      <c r="T11">
+        <v>0.01674959073117948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>93.60096233333333</v>
+      </c>
+      <c r="H12">
+        <v>280.802887</v>
+      </c>
+      <c r="I12">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="J12">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.3424073333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.027222</v>
+      </c>
+      <c r="O12">
+        <v>0.2005686561953534</v>
+      </c>
+      <c r="P12">
+        <v>0.2005686561953535</v>
+      </c>
+      <c r="Q12">
+        <v>32.04965590999044</v>
+      </c>
+      <c r="R12">
+        <v>288.446903189914</v>
+      </c>
+      <c r="S12">
+        <v>0.02453375894379358</v>
+      </c>
+      <c r="T12">
+        <v>0.02453375894379358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>93.60096233333333</v>
+      </c>
+      <c r="H13">
+        <v>280.802887</v>
+      </c>
+      <c r="I13">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="J13">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.222653666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.667961</v>
+      </c>
+      <c r="O13">
+        <v>0.7161820996308148</v>
+      </c>
+      <c r="P13">
+        <v>0.7161820996308148</v>
+      </c>
+      <c r="Q13">
+        <v>114.4415598003786</v>
+      </c>
+      <c r="R13">
+        <v>1029.974038203407</v>
+      </c>
+      <c r="S13">
+        <v>0.08760411185628426</v>
+      </c>
+      <c r="T13">
+        <v>0.08760411185628428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>93.60096233333333</v>
+      </c>
+      <c r="H14">
+        <v>280.802887</v>
+      </c>
+      <c r="I14">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="J14">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04147033333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.124411</v>
+      </c>
+      <c r="O14">
+        <v>0.02429167900017729</v>
+      </c>
+      <c r="P14">
+        <v>0.02429167900017729</v>
+      </c>
+      <c r="Q14">
+        <v>3.881663108284111</v>
+      </c>
+      <c r="R14">
+        <v>34.934967974557</v>
+      </c>
+      <c r="S14">
+        <v>0.002971382509288452</v>
+      </c>
+      <c r="T14">
+        <v>0.002971382509288452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>93.60096233333333</v>
+      </c>
+      <c r="H15">
+        <v>280.802887</v>
+      </c>
+      <c r="I15">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="J15">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03467833333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.104035</v>
+      </c>
+      <c r="O15">
+        <v>0.02031319437013965</v>
+      </c>
+      <c r="P15">
+        <v>0.02031319437013965</v>
+      </c>
+      <c r="Q15">
+        <v>3.245925372116111</v>
+      </c>
+      <c r="R15">
+        <v>29.213328349045</v>
+      </c>
+      <c r="S15">
+        <v>0.002484730283928464</v>
+      </c>
+      <c r="T15">
+        <v>0.002484730283928465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>93.60096233333333</v>
+      </c>
+      <c r="H16">
+        <v>280.802887</v>
+      </c>
+      <c r="I16">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="J16">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.065973</v>
+      </c>
+      <c r="N16">
+        <v>0.197919</v>
+      </c>
+      <c r="O16">
+        <v>0.03864437080351488</v>
+      </c>
+      <c r="P16">
+        <v>0.03864437080351488</v>
+      </c>
+      <c r="Q16">
+        <v>6.175136288017</v>
+      </c>
+      <c r="R16">
+        <v>55.57622659215301</v>
+      </c>
+      <c r="S16">
+        <v>0.004727018148361972</v>
+      </c>
+      <c r="T16">
+        <v>0.004727018148361972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H17">
+        <v>276.929772</v>
+      </c>
+      <c r="I17">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J17">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.3424073333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.027222</v>
+      </c>
+      <c r="O17">
+        <v>0.2005686561953534</v>
+      </c>
+      <c r="P17">
+        <v>0.2005686561953535</v>
+      </c>
+      <c r="Q17">
+        <v>31.60759491704267</v>
+      </c>
+      <c r="R17">
+        <v>284.4683542533841</v>
+      </c>
+      <c r="S17">
+        <v>0.02419536473856737</v>
+      </c>
+      <c r="T17">
+        <v>0.02419536473856737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H18">
+        <v>276.929772</v>
+      </c>
+      <c r="I18">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J18">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.222653666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.667961</v>
+      </c>
+      <c r="O18">
+        <v>0.7161820996308148</v>
+      </c>
+      <c r="P18">
+        <v>0.7161820996308148</v>
+      </c>
+      <c r="Q18">
+        <v>112.8630670483214</v>
+      </c>
+      <c r="R18">
+        <v>1015.767603434892</v>
+      </c>
+      <c r="S18">
+        <v>0.08639578809823027</v>
+      </c>
+      <c r="T18">
+        <v>0.08639578809823029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H19">
+        <v>276.929772</v>
+      </c>
+      <c r="I19">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J19">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.04147033333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.124411</v>
+      </c>
+      <c r="O19">
+        <v>0.02429167900017729</v>
+      </c>
+      <c r="P19">
+        <v>0.02429167900017729</v>
+      </c>
+      <c r="Q19">
+        <v>3.828123318254667</v>
+      </c>
+      <c r="R19">
+        <v>34.453109864292</v>
+      </c>
+      <c r="S19">
+        <v>0.002930398222088219</v>
+      </c>
+      <c r="T19">
+        <v>0.002930398222088219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H20">
+        <v>276.929772</v>
+      </c>
+      <c r="I20">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J20">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03467833333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.104035</v>
+      </c>
+      <c r="O20">
+        <v>0.02031319437013965</v>
+      </c>
+      <c r="P20">
+        <v>0.02031319437013965</v>
+      </c>
+      <c r="Q20">
+        <v>3.201154314446667</v>
+      </c>
+      <c r="R20">
+        <v>28.81038883002</v>
+      </c>
+      <c r="S20">
+        <v>0.002450458392223741</v>
+      </c>
+      <c r="T20">
+        <v>0.002450458392223742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H21">
+        <v>276.929772</v>
+      </c>
+      <c r="I21">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J21">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.065973</v>
+      </c>
+      <c r="N21">
+        <v>0.197919</v>
+      </c>
+      <c r="O21">
+        <v>0.03864437080351488</v>
+      </c>
+      <c r="P21">
+        <v>0.03864437080351488</v>
+      </c>
+      <c r="Q21">
+        <v>6.089962616052001</v>
+      </c>
+      <c r="R21">
+        <v>54.80966354446801</v>
+      </c>
+      <c r="S21">
+        <v>0.004661818373917727</v>
+      </c>
+      <c r="T21">
+        <v>0.004661818373917727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H22">
+        <v>273.936855</v>
+      </c>
+      <c r="I22">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J22">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.3424073333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.027222</v>
+      </c>
+      <c r="O22">
+        <v>0.2005686561953534</v>
+      </c>
+      <c r="P22">
+        <v>0.2005686561953535</v>
+      </c>
+      <c r="Q22">
+        <v>31.26599600742333</v>
+      </c>
+      <c r="R22">
+        <v>281.39396406681</v>
+      </c>
+      <c r="S22">
+        <v>0.02393387346616181</v>
+      </c>
+      <c r="T22">
+        <v>0.02393387346616182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H23">
+        <v>273.936855</v>
+      </c>
+      <c r="I23">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J23">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.222653666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.667961</v>
+      </c>
+      <c r="O23">
+        <v>0.7161820996308148</v>
+      </c>
+      <c r="P23">
+        <v>0.7161820996308148</v>
+      </c>
+      <c r="Q23">
+        <v>111.6433000669617</v>
+      </c>
+      <c r="R23">
+        <v>1004.789700602655</v>
+      </c>
+      <c r="S23">
+        <v>0.08546206608972194</v>
+      </c>
+      <c r="T23">
+        <v>0.08546206608972196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H24">
+        <v>273.936855</v>
+      </c>
+      <c r="I24">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J24">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04147033333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.124411</v>
+      </c>
+      <c r="O24">
+        <v>0.02429167900017729</v>
+      </c>
+      <c r="P24">
+        <v>0.02429167900017729</v>
+      </c>
+      <c r="Q24">
+        <v>3.786750896378333</v>
+      </c>
+      <c r="R24">
+        <v>34.08075806740499</v>
+      </c>
+      <c r="S24">
+        <v>0.002898727959290842</v>
+      </c>
+      <c r="T24">
+        <v>0.002898727959290842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H25">
+        <v>273.936855</v>
+      </c>
+      <c r="I25">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J25">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.03467833333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.104035</v>
+      </c>
+      <c r="O25">
+        <v>0.02031319437013965</v>
+      </c>
+      <c r="P25">
+        <v>0.02031319437013965</v>
+      </c>
+      <c r="Q25">
+        <v>3.166557856658333</v>
+      </c>
+      <c r="R25">
+        <v>28.499020709925</v>
+      </c>
+      <c r="S25">
+        <v>0.00242397507651914</v>
+      </c>
+      <c r="T25">
+        <v>0.002423975076519141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H26">
+        <v>273.936855</v>
+      </c>
+      <c r="I26">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J26">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.065973</v>
+      </c>
+      <c r="N26">
+        <v>0.197919</v>
+      </c>
+      <c r="O26">
+        <v>0.03864437080351488</v>
+      </c>
+      <c r="P26">
+        <v>0.03864437080351488</v>
+      </c>
+      <c r="Q26">
+        <v>6.024145378305</v>
+      </c>
+      <c r="R26">
+        <v>54.217308404745</v>
+      </c>
+      <c r="S26">
+        <v>0.004611435797275837</v>
+      </c>
+      <c r="T26">
+        <v>0.004611435797275838</v>
       </c>
     </row>
   </sheetData>
